--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Walonie-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Walonie-cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3107FD-5071-42E3-8767-77D7DA5ACE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A92250B-39FD-4552-B353-20DBACAE527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2550" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2070" windowWidth="11540" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,12 +1173,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1500,15 +1502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>3000</v>
       </c>
@@ -1541,8 +1543,11 @@
       <c r="E2" s="5">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>20002</v>
       </c>
@@ -1558,8 +1563,11 @@
       <c r="E3" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>25000</v>
       </c>
@@ -1575,8 +1583,11 @@
       <c r="E4" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>25005</v>
       </c>
@@ -1592,8 +1603,11 @@
       <c r="E5" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>25005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>25014</v>
       </c>
@@ -1609,8 +1623,11 @@
       <c r="E6" s="5">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>25014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>25015</v>
       </c>
@@ -1626,8 +1643,11 @@
       <c r="E7" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>25015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>25018</v>
       </c>
@@ -1643,8 +1663,11 @@
       <c r="E8" s="5">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>25018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>25023</v>
       </c>
@@ -1660,8 +1683,11 @@
       <c r="E9" s="5">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>25023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>25031</v>
       </c>
@@ -1677,8 +1703,11 @@
       <c r="E10" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>25031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>25037</v>
       </c>
@@ -1694,8 +1723,11 @@
       <c r="E11" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>25037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>25043</v>
       </c>
@@ -1711,8 +1743,11 @@
       <c r="E12" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>25043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>25044</v>
       </c>
@@ -1728,8 +1763,11 @@
       <c r="E13" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>25044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>25048</v>
       </c>
@@ -1745,8 +1783,11 @@
       <c r="E14" s="5">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>25048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>25050</v>
       </c>
@@ -1762,8 +1803,11 @@
       <c r="E15" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>25050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>25068</v>
       </c>
@@ -1779,8 +1823,11 @@
       <c r="E16" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>25068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>25072</v>
       </c>
@@ -1796,8 +1843,11 @@
       <c r="E17" s="5">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>25072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>25084</v>
       </c>
@@ -1813,8 +1863,11 @@
       <c r="E18" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>25084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>25091</v>
       </c>
@@ -1830,8 +1883,11 @@
       <c r="E19" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>25091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>25105</v>
       </c>
@@ -1847,8 +1903,11 @@
       <c r="E20" s="5">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>25105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>25107</v>
       </c>
@@ -1864,8 +1923,11 @@
       <c r="E21" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>25107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>25110</v>
       </c>
@@ -1881,8 +1943,11 @@
       <c r="E22" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>25110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>25112</v>
       </c>
@@ -1898,8 +1963,11 @@
       <c r="E23" s="5">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>25112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>25117</v>
       </c>
@@ -1915,8 +1983,11 @@
       <c r="E24" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>25117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25118</v>
       </c>
@@ -1932,8 +2003,11 @@
       <c r="E25" s="5">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>25118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25119</v>
       </c>
@@ -1949,8 +2023,11 @@
       <c r="E26" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>25119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25120</v>
       </c>
@@ -1966,8 +2043,11 @@
       <c r="E27" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>25120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25121</v>
       </c>
@@ -1983,8 +2063,11 @@
       <c r="E28" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>25121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25122</v>
       </c>
@@ -2000,8 +2083,11 @@
       <c r="E29" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>25122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>25123</v>
       </c>
@@ -2017,8 +2103,11 @@
       <c r="E30" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>25123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25124</v>
       </c>
@@ -2034,8 +2123,11 @@
       <c r="E31" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>25124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>50000</v>
       </c>
@@ -2051,8 +2143,11 @@
       <c r="E32" s="5">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>51000</v>
       </c>
@@ -2068,8 +2163,11 @@
       <c r="E33" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>51004</v>
       </c>
@@ -2085,8 +2183,11 @@
       <c r="E34" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>51004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>51008</v>
       </c>
@@ -2102,8 +2203,11 @@
       <c r="E35" s="5">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>51008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>51009</v>
       </c>
@@ -2119,8 +2223,11 @@
       <c r="E36" s="5">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>51009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>51012</v>
       </c>
@@ -2136,8 +2243,11 @@
       <c r="E37" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>51012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>51014</v>
       </c>
@@ -2153,8 +2263,11 @@
       <c r="E38" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>51014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>51017</v>
       </c>
@@ -2170,8 +2283,11 @@
       <c r="E39" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>51017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>51019</v>
       </c>
@@ -2187,8 +2303,11 @@
       <c r="E40" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>51019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>51065</v>
       </c>
@@ -2204,8 +2323,11 @@
       <c r="E41" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>51065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>51067</v>
       </c>
@@ -2221,8 +2343,11 @@
       <c r="E42" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>51067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>51068</v>
       </c>
@@ -2238,8 +2363,11 @@
       <c r="E43" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>51068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>51069</v>
       </c>
@@ -2255,8 +2383,11 @@
       <c r="E44" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>51069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>52000</v>
       </c>
@@ -2272,8 +2403,11 @@
       <c r="E45" s="5">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>52010</v>
       </c>
@@ -2289,8 +2423,11 @@
       <c r="E46" s="5">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>52010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>52011</v>
       </c>
@@ -2306,8 +2443,11 @@
       <c r="E47" s="5">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>52011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>52012</v>
       </c>
@@ -2323,8 +2463,11 @@
       <c r="E48" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>52012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>52015</v>
       </c>
@@ -2340,8 +2483,11 @@
       <c r="E49" s="5">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>52015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>52018</v>
       </c>
@@ -2357,8 +2503,11 @@
       <c r="E50" s="5">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>52018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>52021</v>
       </c>
@@ -2374,8 +2523,11 @@
       <c r="E51" s="5">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>52021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>52022</v>
       </c>
@@ -2391,8 +2543,11 @@
       <c r="E52" s="5">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>52022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52025</v>
       </c>
@@ -2408,8 +2563,11 @@
       <c r="E53" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>52025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52048</v>
       </c>
@@ -2425,8 +2583,11 @@
       <c r="E54" s="5">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>52048</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>52055</v>
       </c>
@@ -2442,8 +2603,11 @@
       <c r="E55" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>52055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>52074</v>
       </c>
@@ -2459,8 +2623,11 @@
       <c r="E56" s="5">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>52074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>52075</v>
       </c>
@@ -2476,8 +2643,11 @@
       <c r="E57" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>52075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>53000</v>
       </c>
@@ -2493,8 +2663,11 @@
       <c r="E58" s="5">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>53014</v>
       </c>
@@ -2510,8 +2683,11 @@
       <c r="E59" s="5">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>53014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>53020</v>
       </c>
@@ -2527,8 +2703,11 @@
       <c r="E60" s="5">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>53020</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>53028</v>
       </c>
@@ -2544,8 +2723,11 @@
       <c r="E61" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>53028</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>53039</v>
       </c>
@@ -2561,8 +2743,11 @@
       <c r="E62" s="5">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>53039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>53044</v>
       </c>
@@ -2578,8 +2763,11 @@
       <c r="E63" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>53044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>53046</v>
       </c>
@@ -2595,8 +2783,11 @@
       <c r="E64" s="5">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>53046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>53053</v>
       </c>
@@ -2612,8 +2803,11 @@
       <c r="E65" s="5">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>53053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>53065</v>
       </c>
@@ -2629,8 +2823,11 @@
       <c r="E66" s="5">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>53065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>53068</v>
       </c>
@@ -2646,8 +2843,11 @@
       <c r="E67" s="5">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>53068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>53070</v>
       </c>
@@ -2663,8 +2863,11 @@
       <c r="E68" s="5">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>53070</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>53082</v>
       </c>
@@ -2680,8 +2883,11 @@
       <c r="E69" s="5">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>53082</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>53083</v>
       </c>
@@ -2697,8 +2903,11 @@
       <c r="E70" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>53083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>53084</v>
       </c>
@@ -2714,8 +2923,11 @@
       <c r="E71" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>53084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>55000</v>
       </c>
@@ -2731,8 +2943,11 @@
       <c r="E72" s="5">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>55004</v>
       </c>
@@ -2748,8 +2963,11 @@
       <c r="E73" s="5">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>55004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>55035</v>
       </c>
@@ -2765,8 +2983,11 @@
       <c r="E74" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>55035</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>55040</v>
       </c>
@@ -2782,8 +3003,11 @@
       <c r="E75" s="5">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>55040</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>55050</v>
       </c>
@@ -2799,8 +3023,11 @@
       <c r="E76" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>55050</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>55085</v>
       </c>
@@ -2816,8 +3043,11 @@
       <c r="E77" s="5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>55085</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>55086</v>
       </c>
@@ -2833,8 +3063,11 @@
       <c r="E78" s="5">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>55086</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>56000</v>
       </c>
@@ -2850,8 +3083,11 @@
       <c r="E79" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>56001</v>
       </c>
@@ -2867,8 +3103,11 @@
       <c r="E80" s="5">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>56001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>56005</v>
       </c>
@@ -2884,8 +3123,11 @@
       <c r="E81" s="5">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>56005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>56016</v>
       </c>
@@ -2901,8 +3143,11 @@
       <c r="E82" s="5">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>56016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>56022</v>
       </c>
@@ -2918,8 +3163,11 @@
       <c r="E83" s="5">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>56022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>56029</v>
       </c>
@@ -2935,8 +3183,11 @@
       <c r="E84" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>56029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>56044</v>
       </c>
@@ -2952,8 +3203,11 @@
       <c r="E85" s="5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>56044</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>56049</v>
       </c>
@@ -2969,8 +3223,11 @@
       <c r="E86" s="5">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>56049</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>56051</v>
       </c>
@@ -2986,8 +3243,11 @@
       <c r="E87" s="5">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>56051</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>56078</v>
       </c>
@@ -3003,8 +3263,11 @@
       <c r="E88" s="5">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>56078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>56086</v>
       </c>
@@ -3020,8 +3283,11 @@
       <c r="E89" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>56086</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>56088</v>
       </c>
@@ -3037,8 +3303,11 @@
       <c r="E90" s="5">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>56088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>57000</v>
       </c>
@@ -3054,8 +3323,11 @@
       <c r="E91" s="5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>57003</v>
       </c>
@@ -3071,8 +3343,11 @@
       <c r="E92" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>57003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>57018</v>
       </c>
@@ -3088,8 +3363,11 @@
       <c r="E93" s="5">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>57018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>57027</v>
       </c>
@@ -3105,8 +3383,11 @@
       <c r="E94" s="5">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>57027</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>57062</v>
       </c>
@@ -3122,8 +3403,11 @@
       <c r="E95" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>57062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>57064</v>
       </c>
@@ -3139,8 +3423,11 @@
       <c r="E96" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>57064</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>57072</v>
       </c>
@@ -3156,8 +3443,11 @@
       <c r="E97" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>57072</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>57081</v>
       </c>
@@ -3173,8 +3463,11 @@
       <c r="E98" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>57081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>57093</v>
       </c>
@@ -3190,8 +3483,11 @@
       <c r="E99" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>57093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>57094</v>
       </c>
@@ -3207,8 +3503,11 @@
       <c r="E100" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>57094</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>57095</v>
       </c>
@@ -3224,8 +3523,11 @@
       <c r="E101" s="5">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>57095</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>57096</v>
       </c>
@@ -3241,8 +3543,11 @@
       <c r="E102" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>57096</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>57097</v>
       </c>
@@ -3258,8 +3563,11 @@
       <c r="E103" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>57097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>58000</v>
       </c>
@@ -3275,8 +3583,11 @@
       <c r="E104" s="5">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>58001</v>
       </c>
@@ -3292,8 +3603,11 @@
       <c r="E105" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>58001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>58002</v>
       </c>
@@ -3309,8 +3623,11 @@
       <c r="E106" s="5">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>58002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>58003</v>
       </c>
@@ -3326,8 +3643,11 @@
       <c r="E107" s="5">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>58003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>58004</v>
       </c>
@@ -3343,8 +3663,11 @@
       <c r="E108" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>58004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>60000</v>
       </c>
@@ -3360,8 +3683,11 @@
       <c r="E109" s="5">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>61000</v>
       </c>
@@ -3377,8 +3703,11 @@
       <c r="E110" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>61003</v>
       </c>
@@ -3394,8 +3723,11 @@
       <c r="E111" s="5">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>61003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>61010</v>
       </c>
@@ -3411,8 +3743,11 @@
       <c r="E112" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>61010</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>61012</v>
       </c>
@@ -3428,8 +3763,11 @@
       <c r="E113" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>61012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>61019</v>
       </c>
@@ -3445,8 +3783,11 @@
       <c r="E114" s="5">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>61019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>61024</v>
       </c>
@@ -3462,8 +3803,11 @@
       <c r="E115" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>61024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>61028</v>
       </c>
@@ -3479,8 +3823,11 @@
       <c r="E116" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>61028</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>61031</v>
       </c>
@@ -3496,8 +3843,11 @@
       <c r="E117" s="5">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>61031</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>61039</v>
       </c>
@@ -3513,8 +3863,11 @@
       <c r="E118" s="5">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>61039</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>61041</v>
       </c>
@@ -3530,8 +3883,11 @@
       <c r="E119" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>61041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>61043</v>
       </c>
@@ -3547,8 +3903,11 @@
       <c r="E120" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>61043</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>61048</v>
       </c>
@@ -3564,8 +3923,11 @@
       <c r="E121" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>61048</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>61063</v>
       </c>
@@ -3581,8 +3943,11 @@
       <c r="E122" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>61063</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>61068</v>
       </c>
@@ -3598,8 +3963,11 @@
       <c r="E123" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>61068</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>61072</v>
       </c>
@@ -3615,8 +3983,11 @@
       <c r="E124" s="5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>61072</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>61079</v>
       </c>
@@ -3632,8 +4003,11 @@
       <c r="E125" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>61079</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>61080</v>
       </c>
@@ -3649,8 +4023,11 @@
       <c r="E126" s="5">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>61080</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>61081</v>
       </c>
@@ -3666,8 +4043,11 @@
       <c r="E127" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>61081</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>62000</v>
       </c>
@@ -3683,8 +4063,11 @@
       <c r="E128" s="5">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>62003</v>
       </c>
@@ -3700,8 +4083,11 @@
       <c r="E129" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>62003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>62006</v>
       </c>
@@ -3717,8 +4103,11 @@
       <c r="E130" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>62006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>62009</v>
       </c>
@@ -3734,8 +4123,11 @@
       <c r="E131" s="5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>62009</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>62011</v>
       </c>
@@ -3751,8 +4143,11 @@
       <c r="E132" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>62011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>62015</v>
       </c>
@@ -3768,8 +4163,11 @@
       <c r="E133" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>62015</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>62022</v>
       </c>
@@ -3785,8 +4183,11 @@
       <c r="E134" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>62022</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>62026</v>
       </c>
@@ -3802,8 +4203,11 @@
       <c r="E135" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>62026</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>62027</v>
       </c>
@@ -3819,8 +4223,11 @@
       <c r="E136" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>62027</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>62032</v>
       </c>
@@ -3836,8 +4243,11 @@
       <c r="E137" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>62032</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>62038</v>
       </c>
@@ -3853,8 +4263,11 @@
       <c r="E138" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>62038</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>62051</v>
       </c>
@@ -3870,8 +4283,11 @@
       <c r="E139" s="5">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>62051</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>62060</v>
       </c>
@@ -3887,8 +4303,11 @@
       <c r="E140" s="5">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>62060</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>62063</v>
       </c>
@@ -3904,8 +4323,11 @@
       <c r="E141" s="5">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>62063</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>62079</v>
       </c>
@@ -3921,8 +4343,11 @@
       <c r="E142" s="5">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>62079</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>62093</v>
       </c>
@@ -3938,8 +4363,11 @@
       <c r="E143" s="5">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>62093</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>62096</v>
       </c>
@@ -3955,8 +4383,11 @@
       <c r="E144" s="5">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>62096</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>62099</v>
       </c>
@@ -3972,8 +4403,11 @@
       <c r="E145" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>62099</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>62100</v>
       </c>
@@ -3989,8 +4423,11 @@
       <c r="E146" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>62108</v>
       </c>
@@ -4006,8 +4443,11 @@
       <c r="E147" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>62108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>62118</v>
       </c>
@@ -4023,8 +4463,11 @@
       <c r="E148" s="5">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>62118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>62119</v>
       </c>
@@ -4040,8 +4483,11 @@
       <c r="E149" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>62119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>62120</v>
       </c>
@@ -4057,8 +4503,11 @@
       <c r="E150" s="5">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>62120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>62121</v>
       </c>
@@ -4074,8 +4523,11 @@
       <c r="E151" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>62121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>62122</v>
       </c>
@@ -4091,8 +4543,11 @@
       <c r="E152" s="5">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>62122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>63000</v>
       </c>
@@ -4108,8 +4563,11 @@
       <c r="E153" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>63001</v>
       </c>
@@ -4125,8 +4583,11 @@
       <c r="E154" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>63001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>63003</v>
       </c>
@@ -4142,8 +4603,11 @@
       <c r="E155" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>63003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>63004</v>
       </c>
@@ -4159,8 +4623,11 @@
       <c r="E156" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>63004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>63012</v>
       </c>
@@ -4176,8 +4643,11 @@
       <c r="E157" s="5">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>63012</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>63013</v>
       </c>
@@ -4193,8 +4663,11 @@
       <c r="E158" s="5">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>63013</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>63020</v>
       </c>
@@ -4210,8 +4683,11 @@
       <c r="E159" s="5">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>63020</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>63023</v>
       </c>
@@ -4227,8 +4703,11 @@
       <c r="E160" s="5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>63023</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>63035</v>
       </c>
@@ -4244,8 +4723,11 @@
       <c r="E161" s="5">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>63035</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>63038</v>
       </c>
@@ -4261,8 +4743,11 @@
       <c r="E162" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>63038</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>63040</v>
       </c>
@@ -4278,8 +4763,11 @@
       <c r="E163" s="5">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>63040</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>63045</v>
       </c>
@@ -4295,8 +4783,11 @@
       <c r="E164" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>63045</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>63046</v>
       </c>
@@ -4312,8 +4803,11 @@
       <c r="E165" s="5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>63046</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>63048</v>
       </c>
@@ -4329,8 +4823,11 @@
       <c r="E166" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>63048</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>63049</v>
       </c>
@@ -4346,8 +4843,11 @@
       <c r="E167" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>63049</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>63057</v>
       </c>
@@ -4363,8 +4863,11 @@
       <c r="E168" s="5">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>63057</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>63058</v>
       </c>
@@ -4380,8 +4883,11 @@
       <c r="E169" s="5">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>63058</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>63061</v>
       </c>
@@ -4397,8 +4903,11 @@
       <c r="E170" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>63061</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>63067</v>
       </c>
@@ -4414,8 +4923,11 @@
       <c r="E171" s="5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>63067</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>63072</v>
       </c>
@@ -4431,8 +4943,11 @@
       <c r="E172" s="5">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>63072</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>63073</v>
       </c>
@@ -4448,8 +4963,11 @@
       <c r="E173" s="5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>63073</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>63075</v>
       </c>
@@ -4465,8 +4983,11 @@
       <c r="E174" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>63075</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>63076</v>
       </c>
@@ -4482,8 +5003,11 @@
       <c r="E175" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>63076</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>63079</v>
       </c>
@@ -4499,8 +5023,11 @@
       <c r="E176" s="5">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>63079</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>63080</v>
       </c>
@@ -4516,8 +5043,11 @@
       <c r="E177" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>63080</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>63084</v>
       </c>
@@ -4533,8 +5063,11 @@
       <c r="E178" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>63084</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>63086</v>
       </c>
@@ -4550,8 +5083,11 @@
       <c r="E179" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>63086</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>63087</v>
       </c>
@@ -4567,8 +5103,11 @@
       <c r="E180" s="5">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>63087</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>63088</v>
       </c>
@@ -4584,8 +5123,11 @@
       <c r="E181" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>63088</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>63089</v>
       </c>
@@ -4601,8 +5143,11 @@
       <c r="E182" s="5">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>63089</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>64000</v>
       </c>
@@ -4618,8 +5163,11 @@
       <c r="E183" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>64008</v>
       </c>
@@ -4635,8 +5183,11 @@
       <c r="E184" s="5">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>64008</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>64015</v>
       </c>
@@ -4652,8 +5203,11 @@
       <c r="E185" s="5">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>64015</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>64021</v>
       </c>
@@ -4669,8 +5223,11 @@
       <c r="E186" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>64021</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>64023</v>
       </c>
@@ -4686,8 +5243,11 @@
       <c r="E187" s="5">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>64023</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>64025</v>
       </c>
@@ -4703,8 +5263,11 @@
       <c r="E188" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>64025</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>64029</v>
       </c>
@@ -4720,8 +5283,11 @@
       <c r="E189" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>64029</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>64034</v>
       </c>
@@ -4737,8 +5303,11 @@
       <c r="E190" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>64034</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>64047</v>
       </c>
@@ -4754,8 +5323,11 @@
       <c r="E191" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>64047</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>64056</v>
       </c>
@@ -4771,8 +5343,11 @@
       <c r="E192" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>64056</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>64063</v>
       </c>
@@ -4788,8 +5363,11 @@
       <c r="E193" s="5">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>64063</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>64065</v>
       </c>
@@ -4805,8 +5383,11 @@
       <c r="E194" s="5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>64065</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>64074</v>
       </c>
@@ -4822,8 +5403,11 @@
       <c r="E195" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>64074</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>64075</v>
       </c>
@@ -4839,8 +5423,11 @@
       <c r="E196" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>64075</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>64076</v>
       </c>
@@ -4856,8 +5443,11 @@
       <c r="E197" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>64076</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>80000</v>
       </c>
@@ -4873,8 +5463,11 @@
       <c r="E198" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>81000</v>
       </c>
@@ -4890,8 +5483,11 @@
       <c r="E199" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>81001</v>
       </c>
@@ -4907,8 +5503,11 @@
       <c r="E200" s="5">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>81001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>81003</v>
       </c>
@@ -4924,8 +5523,11 @@
       <c r="E201" s="5">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>81003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>81004</v>
       </c>
@@ -4941,8 +5543,11 @@
       <c r="E202" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>81004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>81013</v>
       </c>
@@ -4958,8 +5563,11 @@
       <c r="E203" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>81013</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>81015</v>
       </c>
@@ -4975,8 +5583,11 @@
       <c r="E204" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>81015</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>82000</v>
       </c>
@@ -4992,8 +5603,11 @@
       <c r="E205" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>82003</v>
       </c>
@@ -5009,8 +5623,11 @@
       <c r="E206" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>82003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>82005</v>
       </c>
@@ -5026,8 +5643,11 @@
       <c r="E207" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>82005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>82009</v>
       </c>
@@ -5043,8 +5663,11 @@
       <c r="E208" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>82009</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>82014</v>
       </c>
@@ -5060,8 +5683,11 @@
       <c r="E209" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>82014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>82032</v>
       </c>
@@ -5077,8 +5703,11 @@
       <c r="E210" s="5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>82032</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>82036</v>
       </c>
@@ -5094,8 +5723,11 @@
       <c r="E211" s="5">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>82036</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>82037</v>
       </c>
@@ -5111,8 +5743,11 @@
       <c r="E212" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>82037</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>82038</v>
       </c>
@@ -5128,8 +5763,11 @@
       <c r="E213" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>82038</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>83000</v>
       </c>
@@ -5145,8 +5783,11 @@
       <c r="E214" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>83012</v>
       </c>
@@ -5162,8 +5803,11 @@
       <c r="E215" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>83012</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>83013</v>
       </c>
@@ -5179,8 +5823,11 @@
       <c r="E216" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>83013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>83028</v>
       </c>
@@ -5196,8 +5843,11 @@
       <c r="E217" s="5">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>83028</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>83031</v>
       </c>
@@ -5213,8 +5863,11 @@
       <c r="E218" s="5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>83031</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>83034</v>
       </c>
@@ -5230,8 +5883,11 @@
       <c r="E219" s="5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>83034</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>83040</v>
       </c>
@@ -5247,8 +5903,11 @@
       <c r="E220" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>83040</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>83044</v>
       </c>
@@ -5264,8 +5923,11 @@
       <c r="E221" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>83044</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>83049</v>
       </c>
@@ -5281,8 +5943,11 @@
       <c r="E222" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>83049</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>83055</v>
       </c>
@@ -5298,8 +5963,11 @@
       <c r="E223" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>83055</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>84000</v>
       </c>
@@ -5315,8 +5983,11 @@
       <c r="E224" s="5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>84009</v>
       </c>
@@ -5332,8 +6003,11 @@
       <c r="E225" s="5">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>84009</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>84010</v>
       </c>
@@ -5349,8 +6023,11 @@
       <c r="E226" s="5">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>84010</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>84016</v>
       </c>
@@ -5366,8 +6043,11 @@
       <c r="E227" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>84016</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>84029</v>
       </c>
@@ -5383,8 +6063,11 @@
       <c r="E228" s="5">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>84029</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>84033</v>
       </c>
@@ -5400,8 +6083,11 @@
       <c r="E229" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>84033</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>84035</v>
       </c>
@@ -5417,8 +6103,11 @@
       <c r="E230" s="5">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>84035</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>84043</v>
       </c>
@@ -5434,8 +6123,11 @@
       <c r="E231" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>84043</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>84050</v>
       </c>
@@ -5451,8 +6143,11 @@
       <c r="E232" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>84050</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>84059</v>
       </c>
@@ -5468,8 +6163,11 @@
       <c r="E233" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>84059</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>84068</v>
       </c>
@@ -5485,8 +6183,11 @@
       <c r="E234" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>84068</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>84075</v>
       </c>
@@ -5502,8 +6203,11 @@
       <c r="E235" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>84075</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>84077</v>
       </c>
@@ -5519,8 +6223,11 @@
       <c r="E236" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>84077</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>85000</v>
       </c>
@@ -5536,8 +6243,11 @@
       <c r="E237" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>85007</v>
       </c>
@@ -5553,8 +6263,11 @@
       <c r="E238" s="5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>85007</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>85009</v>
       </c>
@@ -5570,8 +6283,11 @@
       <c r="E239" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>85009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>85011</v>
       </c>
@@ -5587,8 +6303,11 @@
       <c r="E240" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>85011</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>85024</v>
       </c>
@@ -5604,8 +6323,11 @@
       <c r="E241" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>85024</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>85026</v>
       </c>
@@ -5621,8 +6343,11 @@
       <c r="E242" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>85026</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>85034</v>
       </c>
@@ -5638,8 +6363,11 @@
       <c r="E243" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>85034</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>85039</v>
       </c>
@@ -5655,8 +6383,11 @@
       <c r="E244" s="5">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>85039</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>85045</v>
       </c>
@@ -5672,8 +6403,11 @@
       <c r="E245" s="5">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>85045</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>85046</v>
       </c>
@@ -5689,8 +6423,11 @@
       <c r="E246" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>85046</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>85047</v>
       </c>
@@ -5706,8 +6443,11 @@
       <c r="E247" s="5">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>85047</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>90000</v>
       </c>
@@ -5723,8 +6463,11 @@
       <c r="E248" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>91000</v>
       </c>
@@ -5740,8 +6483,11 @@
       <c r="E249" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>91005</v>
       </c>
@@ -5757,8 +6503,11 @@
       <c r="E250" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>91005</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>91013</v>
       </c>
@@ -5774,8 +6523,11 @@
       <c r="E251" s="5">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>91013</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>91015</v>
       </c>
@@ -5791,8 +6543,11 @@
       <c r="E252" s="5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>91015</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>91030</v>
       </c>
@@ -5808,8 +6563,11 @@
       <c r="E253" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>91030</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>91034</v>
       </c>
@@ -5825,8 +6583,11 @@
       <c r="E254" s="5">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>91034</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>91054</v>
       </c>
@@ -5842,8 +6603,11 @@
       <c r="E255" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>91054</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>91059</v>
       </c>
@@ -5859,8 +6623,11 @@
       <c r="E256" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>91059</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>91064</v>
       </c>
@@ -5876,8 +6643,11 @@
       <c r="E257" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>91064</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>91072</v>
       </c>
@@ -5893,8 +6663,11 @@
       <c r="E258" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>91072</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>91103</v>
       </c>
@@ -5910,8 +6683,11 @@
       <c r="E259" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>91103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>91114</v>
       </c>
@@ -5927,8 +6703,11 @@
       <c r="E260" s="5">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>91114</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>91120</v>
       </c>
@@ -5944,8 +6723,11 @@
       <c r="E261" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>91120</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>91141</v>
       </c>
@@ -5961,8 +6743,11 @@
       <c r="E262" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>91141</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>91142</v>
       </c>
@@ -5978,8 +6763,11 @@
       <c r="E263" s="5">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>91142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>91143</v>
       </c>
@@ -5995,8 +6783,11 @@
       <c r="E264" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>91143</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>92000</v>
       </c>
@@ -6012,8 +6803,11 @@
       <c r="E265" s="5">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>92003</v>
       </c>
@@ -6029,8 +6823,11 @@
       <c r="E266" s="5">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>92003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>92006</v>
       </c>
@@ -6046,8 +6843,11 @@
       <c r="E267" s="5">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>92006</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>92035</v>
       </c>
@@ -6063,8 +6863,11 @@
       <c r="E268" s="5">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>92035</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>92045</v>
       </c>
@@ -6080,8 +6883,11 @@
       <c r="E269" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>92045</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>92048</v>
       </c>
@@ -6097,8 +6903,11 @@
       <c r="E270" s="5">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>92048</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>92054</v>
       </c>
@@ -6114,8 +6923,11 @@
       <c r="E271" s="5">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>92054</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>92087</v>
       </c>
@@ -6131,8 +6943,11 @@
       <c r="E272" s="5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>92087</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>92094</v>
       </c>
@@ -6148,8 +6963,11 @@
       <c r="E273" s="5">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>92094</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>92097</v>
       </c>
@@ -6165,8 +6983,11 @@
       <c r="E274" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>92097</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>92101</v>
       </c>
@@ -6182,8 +7003,11 @@
       <c r="E275" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>92101</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>92114</v>
       </c>
@@ -6199,8 +7023,11 @@
       <c r="E276" s="5">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>92114</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>92137</v>
       </c>
@@ -6216,8 +7043,11 @@
       <c r="E277" s="5">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>92137</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>92138</v>
       </c>
@@ -6233,8 +7063,11 @@
       <c r="E278" s="5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>92138</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>92140</v>
       </c>
@@ -6250,8 +7083,11 @@
       <c r="E279" s="5">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>92140</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>92141</v>
       </c>
@@ -6267,8 +7103,11 @@
       <c r="E280" s="5">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>92141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>92142</v>
       </c>
@@ -6284,8 +7123,11 @@
       <c r="E281" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>92142</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>93000</v>
       </c>
@@ -6301,8 +7143,11 @@
       <c r="E282" s="5">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>93010</v>
       </c>
@@ -6318,8 +7163,11 @@
       <c r="E283" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>93010</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>93014</v>
       </c>
@@ -6335,8 +7183,11 @@
       <c r="E284" s="5">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>93014</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>93018</v>
       </c>
@@ -6352,8 +7203,11 @@
       <c r="E285" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>93018</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>93022</v>
       </c>
@@ -6369,8 +7223,11 @@
       <c r="E286" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>93022</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>93056</v>
       </c>
@@ -6386,8 +7243,11 @@
       <c r="E287" s="5">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>93056</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>93088</v>
       </c>
@@ -6403,8 +7263,11 @@
       <c r="E288" s="5">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>93088</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>93090</v>
       </c>
@@ -6420,8 +7283,11 @@
       <c r="E289" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>93090</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>100001</v>
       </c>
@@ -6437,8 +7303,11 @@
       <c r="E290" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>100003</v>
       </c>
@@ -6454,8 +7323,11 @@
       <c r="E291" s="5">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>100003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>100004</v>
       </c>
@@ -6471,8 +7343,11 @@
       <c r="E292" s="5">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>100005</v>
       </c>
@@ -6488,8 +7363,11 @@
       <c r="E293" s="5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>100006</v>
       </c>
@@ -6505,8 +7383,11 @@
       <c r="E294" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>100007</v>
       </c>
@@ -6522,8 +7403,11 @@
       <c r="E295" s="5">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>100008</v>
       </c>
@@ -6539,8 +7423,11 @@
       <c r="E296" s="5">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>100009</v>
       </c>
@@ -6556,8 +7443,11 @@
       <c r="E297" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>100010</v>
       </c>
@@ -6573,8 +7463,11 @@
       <c r="E298" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>100012</v>
       </c>
@@ -6590,8 +7483,11 @@
       <c r="E299" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>100012</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>115267</v>
       </c>
@@ -6607,8 +7503,11 @@
       <c r="E300" s="5">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>115267</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>115268</v>
       </c>
@@ -6624,8 +7523,11 @@
       <c r="E301" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>115268</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>115269</v>
       </c>
@@ -6641,8 +7543,11 @@
       <c r="E302" s="5">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>115269</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>115270</v>
       </c>
@@ -6658,8 +7563,11 @@
       <c r="E303" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>115270</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>115271</v>
       </c>
@@ -6675,8 +7583,11 @@
       <c r="E304" s="5">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>115271</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>115272</v>
       </c>
@@ -6692,8 +7603,11 @@
       <c r="E305" s="5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>115272</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>115273</v>
       </c>
@@ -6709,8 +7623,11 @@
       <c r="E306" s="5">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>115273</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>115274</v>
       </c>
@@ -6726,8 +7643,11 @@
       <c r="E307" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>115274</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>115275</v>
       </c>
@@ -6743,8 +7663,11 @@
       <c r="E308" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>115275</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>115276</v>
       </c>
@@ -6760,8 +7683,11 @@
       <c r="E309" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>115276</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>115277</v>
       </c>
@@ -6777,8 +7703,11 @@
       <c r="E310" s="5">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>115277</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>115278</v>
       </c>
@@ -6794,8 +7723,11 @@
       <c r="E311" s="5">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>115278</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>115279</v>
       </c>
@@ -6811,8 +7743,11 @@
       <c r="E312" s="5">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>115279</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>115280</v>
       </c>
@@ -6828,8 +7763,11 @@
       <c r="E313" s="5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>115280</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>115281</v>
       </c>
@@ -6845,8 +7783,11 @@
       <c r="E314" s="5">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>115281</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>115282</v>
       </c>
@@ -6862,8 +7803,11 @@
       <c r="E315" s="5">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>115282</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>115283</v>
       </c>
@@ -6879,8 +7823,11 @@
       <c r="E316" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>115283</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>115284</v>
       </c>
@@ -6896,8 +7843,11 @@
       <c r="E317" s="5">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>115284</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>115285</v>
       </c>
@@ -6913,8 +7863,11 @@
       <c r="E318" s="5">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>115285</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>115286</v>
       </c>
@@ -6930,8 +7883,11 @@
       <c r="E319" s="5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>115286</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>115287</v>
       </c>
@@ -6947,8 +7903,11 @@
       <c r="E320" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>115287</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>115288</v>
       </c>
@@ -6964,8 +7923,11 @@
       <c r="E321" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>115288</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>115289</v>
       </c>
@@ -6981,8 +7943,11 @@
       <c r="E322" s="5">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>115289</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>115290</v>
       </c>
@@ -6998,8 +7963,11 @@
       <c r="E323" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>115290</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>115291</v>
       </c>
@@ -7015,8 +7983,11 @@
       <c r="E324" s="5">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>115291</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>115292</v>
       </c>
@@ -7032,8 +8003,11 @@
       <c r="E325" s="5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>115292</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>115293</v>
       </c>
@@ -7049,8 +8023,11 @@
       <c r="E326" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>115293</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>115294</v>
       </c>
@@ -7066,8 +8043,11 @@
       <c r="E327" s="5">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>115294</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>115295</v>
       </c>
@@ -7083,8 +8063,11 @@
       <c r="E328" s="5">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>115295</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>115296</v>
       </c>
@@ -7100,8 +8083,11 @@
       <c r="E329" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>115296</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>115297</v>
       </c>
@@ -7117,8 +8103,11 @@
       <c r="E330" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>115297</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>115298</v>
       </c>
@@ -7134,8 +8123,11 @@
       <c r="E331" s="5">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>115298</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>115299</v>
       </c>
@@ -7151,8 +8143,11 @@
       <c r="E332" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>115299</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>115300</v>
       </c>
@@ -7168,8 +8163,11 @@
       <c r="E333" s="5">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>115300</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>115301</v>
       </c>
@@ -7185,8 +8183,11 @@
       <c r="E334" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>115301</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>115302</v>
       </c>
@@ -7202,8 +8203,11 @@
       <c r="E335" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>115302</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>115303</v>
       </c>
@@ -7219,8 +8223,11 @@
       <c r="E336" s="5">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>115303</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>115304</v>
       </c>
@@ -7236,8 +8243,11 @@
       <c r="E337" s="5">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>115304</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>115305</v>
       </c>
@@ -7253,8 +8263,11 @@
       <c r="E338" s="5">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>115305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>115306</v>
       </c>
@@ -7270,8 +8283,11 @@
       <c r="E339" s="5">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>115306</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>115307</v>
       </c>
@@ -7287,8 +8303,11 @@
       <c r="E340" s="5">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>115307</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>115308</v>
       </c>
@@ -7304,8 +8323,11 @@
       <c r="E341" s="5">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>115308</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>115309</v>
       </c>
@@ -7321,8 +8343,11 @@
       <c r="E342" s="5">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>115309</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>115310</v>
       </c>
@@ -7338,8 +8363,11 @@
       <c r="E343" s="5">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>115310</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>115311</v>
       </c>
@@ -7355,8 +8383,11 @@
       <c r="E344" s="5">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>115311</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>115312</v>
       </c>
@@ -7372,8 +8403,11 @@
       <c r="E345" s="5">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>115312</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>115313</v>
       </c>
@@ -7389,8 +8423,11 @@
       <c r="E346" s="5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>115313</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>115314</v>
       </c>
@@ -7406,8 +8443,11 @@
       <c r="E347" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>115314</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>115315</v>
       </c>
@@ -7423,8 +8463,11 @@
       <c r="E348" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>115315</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>115316</v>
       </c>
@@ -7440,8 +8483,11 @@
       <c r="E349" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>115316</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>115317</v>
       </c>
@@ -7457,8 +8503,11 @@
       <c r="E350" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>115317</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>115318</v>
       </c>
@@ -7474,8 +8523,11 @@
       <c r="E351" s="5">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>115318</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>115319</v>
       </c>
@@ -7491,8 +8543,11 @@
       <c r="E352" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>115319</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>115320</v>
       </c>
@@ -7508,8 +8563,11 @@
       <c r="E353" s="5">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>115320</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>115321</v>
       </c>
@@ -7525,8 +8583,11 @@
       <c r="E354" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>115321</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>115322</v>
       </c>
@@ -7542,8 +8603,11 @@
       <c r="E355" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>115322</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>115323</v>
       </c>
@@ -7559,8 +8623,11 @@
       <c r="E356" s="5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>115323</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>115324</v>
       </c>
@@ -7576,8 +8643,11 @@
       <c r="E357" s="5">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>115324</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>115325</v>
       </c>
@@ -7593,8 +8663,11 @@
       <c r="E358" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>115325</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>115326</v>
       </c>
@@ -7610,8 +8683,11 @@
       <c r="E359" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>115326</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>115327</v>
       </c>
@@ -7627,8 +8703,11 @@
       <c r="E360" s="5">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>115327</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>115328</v>
       </c>
@@ -7644,8 +8723,11 @@
       <c r="E361" s="5">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>115328</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>115329</v>
       </c>
@@ -7661,8 +8743,11 @@
       <c r="E362" s="5">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>115329</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>115330</v>
       </c>
@@ -7678,8 +8763,11 @@
       <c r="E363" s="5">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>115330</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>115331</v>
       </c>
@@ -7695,8 +8783,11 @@
       <c r="E364" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>115331</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>115332</v>
       </c>
@@ -7712,8 +8803,11 @@
       <c r="E365" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>115332</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>115333</v>
       </c>
@@ -7729,8 +8823,11 @@
       <c r="E366" s="5">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>115333</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>115334</v>
       </c>
@@ -7746,8 +8843,11 @@
       <c r="E367" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>115334</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>115335</v>
       </c>
@@ -7763,8 +8863,11 @@
       <c r="E368" s="5">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>115335</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>115336</v>
       </c>
@@ -7780,8 +8883,11 @@
       <c r="E369" s="5">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>115336</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>115337</v>
       </c>
@@ -7797,8 +8903,11 @@
       <c r="E370" s="5">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>115337</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>115338</v>
       </c>
@@ -7814,8 +8923,11 @@
       <c r="E371" s="5">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>115338</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>150000</v>
       </c>
@@ -7831,8 +8943,11 @@
       <c r="E372" s="5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>150001</v>
       </c>
@@ -7848,8 +8963,11 @@
       <c r="E373" s="5">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>150001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>150002</v>
       </c>
@@ -7865,8 +8983,11 @@
       <c r="E374" s="5">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>150002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>150003</v>
       </c>
@@ -7882,8 +9003,11 @@
       <c r="E375" s="5">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>150003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>150004</v>
       </c>
@@ -7899,8 +9023,11 @@
       <c r="E376" s="5">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>150004</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>150005</v>
       </c>
@@ -7916,8 +9043,11 @@
       <c r="E377" s="5">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>150005</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>150006</v>
       </c>
@@ -7933,8 +9063,11 @@
       <c r="E378" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>150006</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>150007</v>
       </c>
@@ -7950,8 +9083,11 @@
       <c r="E379" s="5">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>150007</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>150008</v>
       </c>
@@ -7967,8 +9103,11 @@
       <c r="E380" s="5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>150008</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>150009</v>
       </c>
@@ -7984,8 +9123,11 @@
       <c r="E381" s="5">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>150009</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>150010</v>
       </c>
@@ -8001,8 +9143,11 @@
       <c r="E382" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>150010</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>150011</v>
       </c>
@@ -8018,8 +9163,11 @@
       <c r="E383" s="5">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>150011</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>150012</v>
       </c>
@@ -8035,8 +9183,11 @@
       <c r="E384" s="5">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>150012</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>150013</v>
       </c>
@@ -8051,6 +9202,9 @@
       </c>
       <c r="E385" s="5">
         <v>9.4</v>
+      </c>
+      <c r="F385">
+        <v>150013</v>
       </c>
     </row>
   </sheetData>

--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Walonie-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Walonie-cleaned.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A92250B-39FD-4552-B353-20DBACAE527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFBD7F5-41E6-4C34-B0FD-443E4CFB903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2070" windowWidth="11540" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6010" yWindow="1300" windowWidth="11540" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1504,11 +1513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
